--- a/Output/2023/116-17.18.3-1592-SG_STT_NSDSFDGVT-1132.xlsx
+++ b/Output/2023/116-17.18.3-1592-SG_STT_NSDSFDGVT-1132.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="615">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="612">
   <si>
     <t xml:space="preserve">Indicator</t>
   </si>
@@ -1850,16 +1850,7 @@
     <t xml:space="preserve">31</t>
   </si>
   <si>
-    <t xml:space="preserve">30</t>
-  </si>
-  <si>
     <t xml:space="preserve">32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">78</t>
   </si>
 </sst>
 </file>
@@ -2561,7 +2552,7 @@
         <v>2022</v>
       </c>
       <c r="G8" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="H8" t="n">
         <v>2022</v>
@@ -2711,7 +2702,7 @@
         <v>2022</v>
       </c>
       <c r="G11" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="H11" t="n">
         <v>2022</v>
@@ -2861,7 +2852,7 @@
         <v>2022</v>
       </c>
       <c r="G14" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="H14" t="n">
         <v>2022</v>
@@ -2911,7 +2902,7 @@
         <v>2022</v>
       </c>
       <c r="G15" t="s">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="H15" t="n">
         <v>2022</v>
@@ -3011,7 +3002,7 @@
         <v>2022</v>
       </c>
       <c r="G17" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="H17" t="n">
         <v>2022</v>
@@ -3661,7 +3652,7 @@
         <v>2022</v>
       </c>
       <c r="G30" t="s">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="H30" t="n">
         <v>2022</v>
@@ -3711,7 +3702,7 @@
         <v>2022</v>
       </c>
       <c r="G31" t="s">
-        <v>611</v>
+        <v>78</v>
       </c>
       <c r="H31" t="n">
         <v>2022</v>
@@ -3811,7 +3802,7 @@
         <v>2022</v>
       </c>
       <c r="G33" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H33" t="n">
         <v>2022</v>
@@ -3861,7 +3852,7 @@
         <v>2022</v>
       </c>
       <c r="G34" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="H34" t="n">
         <v>2022</v>
@@ -16711,7 +16702,7 @@
         <v>2021</v>
       </c>
       <c r="G291" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H291" t="n">
         <v>2021</v>
@@ -16861,7 +16852,7 @@
         <v>2021</v>
       </c>
       <c r="G294" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="H294" t="n">
         <v>2021</v>
@@ -17011,7 +17002,7 @@
         <v>2021</v>
       </c>
       <c r="G297" t="s">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="H297" t="n">
         <v>2021</v>
@@ -17061,7 +17052,7 @@
         <v>2021</v>
       </c>
       <c r="G298" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="H298" t="n">
         <v>2021</v>
@@ -17161,7 +17152,7 @@
         <v>2021</v>
       </c>
       <c r="G300" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="H300" t="n">
         <v>2021</v>
@@ -17811,7 +17802,7 @@
         <v>2021</v>
       </c>
       <c r="G313" t="s">
-        <v>153</v>
+        <v>189</v>
       </c>
       <c r="H313" t="n">
         <v>2021</v>
@@ -17861,7 +17852,7 @@
         <v>2021</v>
       </c>
       <c r="G314" t="s">
-        <v>377</v>
+        <v>187</v>
       </c>
       <c r="H314" t="n">
         <v>2021</v>
@@ -18011,7 +18002,7 @@
         <v>2021</v>
       </c>
       <c r="G317" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="H317" t="n">
         <v>2021</v>
@@ -30861,7 +30852,7 @@
         <v>2020</v>
       </c>
       <c r="G574" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H574" t="n">
         <v>2020</v>
@@ -31011,7 +31002,7 @@
         <v>2020</v>
       </c>
       <c r="G577" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="H577" t="n">
         <v>2020</v>
@@ -31161,7 +31152,7 @@
         <v>2020</v>
       </c>
       <c r="G580" t="s">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="H580" t="n">
         <v>2020</v>
@@ -31211,7 +31202,7 @@
         <v>2020</v>
       </c>
       <c r="G581" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="H581" t="n">
         <v>2020</v>
@@ -31311,7 +31302,7 @@
         <v>2020</v>
       </c>
       <c r="G583" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="H583" t="n">
         <v>2020</v>
@@ -31961,7 +31952,7 @@
         <v>2020</v>
       </c>
       <c r="G596" t="s">
-        <v>153</v>
+        <v>189</v>
       </c>
       <c r="H596" t="n">
         <v>2020</v>
@@ -32011,7 +32002,7 @@
         <v>2020</v>
       </c>
       <c r="G597" t="s">
-        <v>377</v>
+        <v>187</v>
       </c>
       <c r="H597" t="n">
         <v>2020</v>
@@ -32161,7 +32152,7 @@
         <v>2020</v>
       </c>
       <c r="G600" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="H600" t="n">
         <v>2020</v>
@@ -45011,7 +45002,7 @@
         <v>2019</v>
       </c>
       <c r="G857" t="s">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="H857" t="n">
         <v>2019</v>
@@ -45161,7 +45152,7 @@
         <v>2019</v>
       </c>
       <c r="G860" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="H860" t="n">
         <v>2019</v>
@@ -45311,7 +45302,7 @@
         <v>2019</v>
       </c>
       <c r="G863" t="s">
-        <v>148</v>
+        <v>49</v>
       </c>
       <c r="H863" t="n">
         <v>2019</v>
@@ -45361,7 +45352,7 @@
         <v>2019</v>
       </c>
       <c r="G864" t="s">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="H864" t="n">
         <v>2019</v>
@@ -45461,7 +45452,7 @@
         <v>2019</v>
       </c>
       <c r="G866" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="H866" t="n">
         <v>2019</v>
@@ -46111,7 +46102,7 @@
         <v>2019</v>
       </c>
       <c r="G879" t="s">
-        <v>613</v>
+        <v>143</v>
       </c>
       <c r="H879" t="n">
         <v>2019</v>
@@ -46161,7 +46152,7 @@
         <v>2019</v>
       </c>
       <c r="G880" t="s">
-        <v>614</v>
+        <v>318</v>
       </c>
       <c r="H880" t="n">
         <v>2019</v>
@@ -46311,7 +46302,7 @@
         <v>2019</v>
       </c>
       <c r="G883" t="s">
-        <v>329</v>
+        <v>56</v>
       </c>
       <c r="H883" t="n">
         <v>2019</v>

--- a/Output/2023/116-17.18.3-1592-SG_STT_NSDSFDGVT-1132.xlsx
+++ b/Output/2023/116-17.18.3-1592-SG_STT_NSDSFDGVT-1132.xlsx
@@ -2752,7 +2752,7 @@
         <v>2022</v>
       </c>
       <c r="G12" t="s">
-        <v>93</v>
+        <v>33</v>
       </c>
       <c r="H12" t="n">
         <v>2022</v>
@@ -3102,7 +3102,7 @@
         <v>2022</v>
       </c>
       <c r="G19" t="s">
-        <v>93</v>
+        <v>33</v>
       </c>
       <c r="H19" t="n">
         <v>2022</v>
@@ -3152,7 +3152,7 @@
         <v>2022</v>
       </c>
       <c r="G20" t="s">
-        <v>93</v>
+        <v>33</v>
       </c>
       <c r="H20" t="n">
         <v>2022</v>
@@ -3302,7 +3302,7 @@
         <v>2022</v>
       </c>
       <c r="G23" t="s">
-        <v>93</v>
+        <v>33</v>
       </c>
       <c r="H23" t="n">
         <v>2022</v>
@@ -17202,7 +17202,7 @@
         <v>2021</v>
       </c>
       <c r="G301" t="s">
-        <v>93</v>
+        <v>33</v>
       </c>
       <c r="H301" t="n">
         <v>2021</v>
@@ -17252,7 +17252,7 @@
         <v>2021</v>
       </c>
       <c r="G302" t="s">
-        <v>93</v>
+        <v>33</v>
       </c>
       <c r="H302" t="n">
         <v>2021</v>
@@ -31352,7 +31352,7 @@
         <v>2020</v>
       </c>
       <c r="G584" t="s">
-        <v>93</v>
+        <v>33</v>
       </c>
       <c r="H584" t="n">
         <v>2020</v>
@@ -31402,7 +31402,7 @@
         <v>2020</v>
       </c>
       <c r="G585" t="s">
-        <v>93</v>
+        <v>33</v>
       </c>
       <c r="H585" t="n">
         <v>2020</v>
